--- a/UploadedFiles/AFDTanks.xlsx
+++ b/UploadedFiles/AFDTanks.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="AllTanks" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -6021,7 +6021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -9657,8 +9657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1019"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K100"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/UploadedFiles/AFDTanks.xlsx
+++ b/UploadedFiles/AFDTanks.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AllTanks" sheetId="3" r:id="rId2"/>
+    <sheet name="Cities" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="1827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="1884">
   <si>
     <t>coopid</t>
   </si>
@@ -5520,6 +5521,177 @@
   </si>
   <si>
     <t>EARL DEAN</t>
+  </si>
+  <si>
+    <t>ARLINGTON</t>
+  </si>
+  <si>
+    <t>AUGUSTA</t>
+  </si>
+  <si>
+    <t>BENNINGTON</t>
+  </si>
+  <si>
+    <t>BROOKVILLE</t>
+  </si>
+  <si>
+    <t>BURRTON</t>
+  </si>
+  <si>
+    <t>BUSHTON</t>
+  </si>
+  <si>
+    <t>CANTON</t>
+  </si>
+  <si>
+    <t>CHASE</t>
+  </si>
+  <si>
+    <t>CHENEY</t>
+  </si>
+  <si>
+    <t>CLAY CENTER</t>
+  </si>
+  <si>
+    <t>COTTONWOOD FALLS</t>
+  </si>
+  <si>
+    <t>DEARBORN</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>ENTERPRISE</t>
+  </si>
+  <si>
+    <t>GALVA</t>
+  </si>
+  <si>
+    <t>GENESEO</t>
+  </si>
+  <si>
+    <t>GOESSEL</t>
+  </si>
+  <si>
+    <t>GREAT BEND</t>
+  </si>
+  <si>
+    <t>GYPSUM</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>HANNIBAL</t>
+  </si>
+  <si>
+    <t>HAVEN</t>
+  </si>
+  <si>
+    <t>HILLSBORO</t>
+  </si>
+  <si>
+    <t>JERSEY CITY</t>
+  </si>
+  <si>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>KINGMAN</t>
+  </si>
+  <si>
+    <t>LANGDON</t>
+  </si>
+  <si>
+    <t>LENARDVILLE</t>
+  </si>
+  <si>
+    <t>LINDSBORG</t>
+  </si>
+  <si>
+    <t>LORRAINE</t>
+  </si>
+  <si>
+    <t>LYONS</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>MARQUETTE</t>
+  </si>
+  <si>
+    <t>MINNEAPOLIS</t>
+  </si>
+  <si>
+    <t>MULVANE</t>
+  </si>
+  <si>
+    <t>NEW CAMBRIA</t>
+  </si>
+  <si>
+    <t>NICKERSON</t>
+  </si>
+  <si>
+    <t>PARTRIDGE</t>
+  </si>
+  <si>
+    <t>PAWNEE ROCK</t>
+  </si>
+  <si>
+    <t>PRETTY PRAIRIE</t>
+  </si>
+  <si>
+    <t>ROMAONA</t>
+  </si>
+  <si>
+    <t>ROSE HILL</t>
+  </si>
+  <si>
+    <t>ROXBURY</t>
+  </si>
+  <si>
+    <t>SALINA</t>
+  </si>
+  <si>
+    <t>SEDGWICK</t>
+  </si>
+  <si>
+    <t>SMOLAN</t>
+  </si>
+  <si>
+    <t>STERLING</t>
+  </si>
+  <si>
+    <t>SYLVIA</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
+    <t>TORONTO</t>
+  </si>
+  <si>
+    <t>TOWANDA</t>
+  </si>
+  <si>
+    <t>WAKEFIELD</t>
+  </si>
+  <si>
+    <t>WILSEY</t>
+  </si>
+  <si>
+    <t>WINDOM</t>
+  </si>
+  <si>
+    <t>WOODBINE</t>
+  </si>
+  <si>
+    <t>YODER</t>
+  </si>
+  <si>
+    <t>CITY</t>
   </si>
 </sst>
 </file>
@@ -5590,16 +5762,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -5737,15 +5940,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K1020" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K1020" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:K1020"/>
   <tableColumns count="11">
     <tableColumn id="1" name="coopid"/>
     <tableColumn id="2" name="customerid"/>
-    <tableColumn id="3" name="companyname" dataDxfId="3"/>
-    <tableColumn id="4" name="firstname" dataDxfId="2"/>
-    <tableColumn id="5" name="lastname" dataDxfId="1"/>
-    <tableColumn id="6" name="city" dataDxfId="0"/>
+    <tableColumn id="3" name="companyname" dataDxfId="6"/>
+    <tableColumn id="4" name="firstname" dataDxfId="5"/>
+    <tableColumn id="5" name="lastname" dataDxfId="4"/>
+    <tableColumn id="6" name="city" dataDxfId="3"/>
     <tableColumn id="7" name="siteid"/>
     <tableColumn id="8" name="long"/>
     <tableColumn id="9" name="lat"/>
@@ -5753,6 +5956,16 @@
     <tableColumn id="11" name="probeid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A106" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A106"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="CITY" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6021,7 +6234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -6029,7 +6242,7 @@
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -9657,8 +9870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F46" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45347,4 +45560,557 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A1019">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/UploadedFiles/AFDTanks.xlsx
+++ b/UploadedFiles/AFDTanks.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AllTanks" sheetId="3" r:id="rId2"/>
-    <sheet name="Cities" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Cities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="1880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5559" uniqueCount="1882">
   <si>
     <t>coopid</t>
   </si>
@@ -5680,13 +5681,19 @@
   </si>
   <si>
     <t>CITY</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>inactive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5709,6 +5716,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5718,7 +5737,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -5746,19 +5765,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -5883,12 +5922,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K103" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:K103"/>
-  <sortState ref="A2:K103">
-    <sortCondition ref="F1:F103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L103" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:L103"/>
+  <sortState ref="A2:L103">
+    <sortCondition ref="B1:B103"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" uniqueName="coopid" name="coopid">
       <xmlColumnPr mapId="1" xpath="/data-set/record/coopid" xmlDataType="integer"/>
     </tableColumn>
@@ -5922,6 +5961,7 @@
     <tableColumn id="11" uniqueName="probeid" name="probeid">
       <xmlColumnPr mapId="1" xpath="/data-set/record/probeid" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="13" uniqueName="13" name="capacity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6223,11 +6263,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6244,7 +6282,7 @@
     <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6278,813 +6316,885 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>116142</v>
+        <v>115596</v>
       </c>
       <c r="B2">
-        <v>90589</v>
+        <v>72098</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>-97.201009999999997</v>
+        <v>-97.437219999999996</v>
       </c>
       <c r="I2">
-        <v>38.91395</v>
+        <v>38.216799999999999</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8090</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>115596</v>
       </c>
       <c r="B3">
-        <v>86640</v>
+        <v>72100</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-97.289820000000006</v>
+        <v>-97.761859999999999</v>
       </c>
       <c r="I3">
-        <v>39.017159999999997</v>
+        <v>38.482419999999998</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>8146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8416</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>115596</v>
       </c>
       <c r="B4">
-        <v>75817</v>
+        <v>72101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-97.604650000000007</v>
+        <v>-97.391909999999996</v>
       </c>
       <c r="I4">
-        <v>38.69576</v>
+        <v>38.278440000000003</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8343</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>115596</v>
       </c>
       <c r="B5">
-        <v>85773</v>
+        <v>72111</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-97.602519999999998</v>
+        <v>-97.935180000000003</v>
       </c>
       <c r="I5">
-        <v>38.695790000000002</v>
+        <v>37.786349999999999</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7959</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2538.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>115596</v>
       </c>
       <c r="B6">
+        <v>72112</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>-97.710759999999993</v>
+      </c>
+      <c r="I6">
+        <v>38.711910000000003</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>7820</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>115596</v>
+      </c>
+      <c r="B7">
+        <v>72116</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-97.758309999999994</v>
+      </c>
+      <c r="I7">
+        <v>38.189160000000001</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>7891</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>115596</v>
+      </c>
+      <c r="B8">
+        <v>72123</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>-97.638540000000006</v>
+      </c>
+      <c r="I8">
+        <v>38.261099999999999</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>7819</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>115596</v>
+      </c>
+      <c r="B9">
+        <v>72124</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>-97.928479999999993</v>
+      </c>
+      <c r="I9">
+        <v>37.835729999999998</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>7851</v>
+      </c>
+      <c r="L9" s="5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>115596</v>
+      </c>
+      <c r="B10">
+        <v>72133</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-97.907340000000005</v>
+      </c>
+      <c r="I10">
+        <v>38.305239999999998</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>8411</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1041.9000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>115596</v>
+      </c>
+      <c r="B11">
+        <v>72134</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>-97.697289999999995</v>
+      </c>
+      <c r="I11">
+        <v>38.740749999999998</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2786</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>115596</v>
+      </c>
+      <c r="B12">
+        <v>72137</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>-97.589560000000006</v>
+      </c>
+      <c r="I12">
+        <v>38.539400000000001</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1033</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>115596</v>
+      </c>
+      <c r="B13">
+        <v>72144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>-97.533649999999994</v>
+      </c>
+      <c r="I13">
+        <v>38.145409999999998</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>7847</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>115596</v>
+      </c>
+      <c r="B14">
+        <v>73154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>-97.4221</v>
+      </c>
+      <c r="I14">
+        <v>38.131169999999997</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3217</v>
+      </c>
+      <c r="L14" s="5">
+        <v>512.29999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>115596</v>
+      </c>
+      <c r="B15">
+        <v>73217</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>-97.202740000000006</v>
+      </c>
+      <c r="I15">
+        <v>38.190100000000001</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2734</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>115596</v>
+      </c>
+      <c r="B16">
+        <v>73238</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>-97.668970000000002</v>
+      </c>
+      <c r="I16">
+        <v>38.143270000000001</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>8412</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>115596</v>
+      </c>
+      <c r="B17">
+        <v>73238</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>-97.669700000000006</v>
+      </c>
+      <c r="I17">
+        <v>38.144199999999998</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>8413</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>115596</v>
+      </c>
+      <c r="B18">
+        <v>73241</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>-97.430729999999997</v>
+      </c>
+      <c r="I18">
+        <v>38.042119999999997</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>7845</v>
+      </c>
+      <c r="L18" s="5">
+        <v>571.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>115596</v>
+      </c>
+      <c r="B19">
         <v>73283</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>-97.576040000000006</v>
       </c>
-      <c r="I6">
+      <c r="I19">
         <v>38.635039999999996</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>8391</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>115596</v>
-      </c>
-      <c r="B7">
-        <v>90884</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-97.099050000000005</v>
-      </c>
-      <c r="I7">
-        <v>37.777140000000003</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>8149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>115596</v>
-      </c>
-      <c r="B8">
-        <v>101314</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>-97.740080000000006</v>
-      </c>
-      <c r="I8">
-        <v>38.119700000000002</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>7870</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>115596</v>
-      </c>
-      <c r="B9">
-        <v>85913</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>-97.776740000000004</v>
-      </c>
-      <c r="I9">
-        <v>38.149099999999997</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>8059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>115596</v>
-      </c>
-      <c r="B10">
-        <v>84536</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>-97.738230000000001</v>
-      </c>
-      <c r="I10">
-        <v>38.084859999999999</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>8153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>115596</v>
-      </c>
-      <c r="B11">
-        <v>73238</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11">
+      <c r="L19" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>115596</v>
+      </c>
+      <c r="B20">
+        <v>73287</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>-97.221609999999998</v>
+      </c>
+      <c r="I20">
+        <v>38.17503</v>
+      </c>
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>-97.668970000000002</v>
-      </c>
-      <c r="I11">
-        <v>38.143270000000001</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>8412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>115596</v>
-      </c>
-      <c r="B12">
-        <v>73238</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>-97.669700000000006</v>
-      </c>
-      <c r="I12">
-        <v>38.144199999999998</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>8413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>115596</v>
-      </c>
-      <c r="B13">
+      <c r="K20">
+        <v>8065</v>
+      </c>
+      <c r="L20" s="5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>115596</v>
+      </c>
+      <c r="B21">
+        <v>73373</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>-97.687020000000004</v>
+      </c>
+      <c r="I21">
+        <v>38.265079999999998</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>7795</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>115596</v>
+      </c>
+      <c r="B22">
+        <v>73532</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>-96.894210000000001</v>
+      </c>
+      <c r="I22">
+        <v>38.230350000000001</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3152</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1041.9000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>115596</v>
+      </c>
+      <c r="B23">
+        <v>73590</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>-96.814319999999995</v>
+      </c>
+      <c r="I23">
+        <v>38.194699999999997</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>7885</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>115596</v>
+      </c>
+      <c r="B24">
         <v>73614</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>-96.883920000000003</v>
       </c>
-      <c r="I13">
+      <c r="I24">
         <v>38.141550000000002</v>
       </c>
-      <c r="J13">
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="K24">
         <v>3092</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>115596</v>
-      </c>
-      <c r="B14">
-        <v>89170</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>-96.885379999999998</v>
-      </c>
-      <c r="I14">
-        <v>38.093060000000001</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>8062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>115596</v>
-      </c>
-      <c r="B15">
-        <v>72144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>-97.533649999999994</v>
-      </c>
-      <c r="I15">
-        <v>38.145409999999998</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>7847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>115596</v>
-      </c>
-      <c r="B16">
-        <v>72101</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>-97.391909999999996</v>
-      </c>
-      <c r="I16">
-        <v>38.278440000000003</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>8343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>115596</v>
-      </c>
-      <c r="B17">
-        <v>73590</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>-96.814319999999995</v>
-      </c>
-      <c r="I17">
-        <v>38.194699999999997</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>7885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>115596</v>
-      </c>
-      <c r="B18">
-        <v>87431</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>-96.356160000000003</v>
-      </c>
-      <c r="I18">
-        <v>38.749270000000003</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>8341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>115596</v>
-      </c>
-      <c r="B19">
-        <v>73532</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>-96.894210000000001</v>
-      </c>
-      <c r="I19">
-        <v>38.230350000000001</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>115596</v>
-      </c>
-      <c r="B20">
-        <v>126352</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>-96.772970000000001</v>
-      </c>
-      <c r="I20">
-        <v>38.24729</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>8346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>115596</v>
-      </c>
-      <c r="B21">
-        <v>90070</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>-97.500820000000004</v>
-      </c>
-      <c r="I21">
-        <v>38.37818</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>115596</v>
-      </c>
-      <c r="B22">
-        <v>92267</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>-97.520650000000003</v>
-      </c>
-      <c r="I22">
-        <v>38.409129999999998</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>3153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>115596</v>
-      </c>
-      <c r="B23">
-        <v>90756</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>-97.481300000000005</v>
-      </c>
-      <c r="I23">
-        <v>38.299599999999998</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>8152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>115596</v>
-      </c>
-      <c r="B24">
-        <v>126353</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>-98.037295999999998</v>
-      </c>
-      <c r="I24">
-        <v>38.587887000000002</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>7796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <v>1030.5999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>115596</v>
       </c>
@@ -7118,372 +7228,405 @@
       <c r="K25">
         <v>8183</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="5">
+        <v>509.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>115596</v>
       </c>
       <c r="B26">
-        <v>85856</v>
+        <v>74837</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>-97.79983</v>
+        <v>-97.380840000000006</v>
       </c>
       <c r="I26">
-        <v>37.925310000000003</v>
+        <v>38.230829999999997</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>7963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8093</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1023.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>115596</v>
       </c>
       <c r="B27">
-        <v>96578</v>
+        <v>74880</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-96.883030000000005</v>
+        <v>-97.369749999999996</v>
       </c>
       <c r="I27">
-        <v>38.740400000000001</v>
+        <v>38.186660000000003</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>8076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3103</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1041.9000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>115596</v>
       </c>
       <c r="B28">
-        <v>74880</v>
+        <v>75483</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-97.369749999999996</v>
+        <v>-97.646540000000002</v>
       </c>
       <c r="I28">
-        <v>38.186660000000003</v>
+        <v>38.172730000000001</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7844</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1143.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>115596</v>
       </c>
       <c r="B29">
-        <v>89066</v>
+        <v>75561</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>-97.760469999999998</v>
+      </c>
+      <c r="I29">
+        <v>38.323430000000002</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>8150</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>115596</v>
+      </c>
+      <c r="B30">
+        <v>75642</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>-97.499539999999996</v>
+      </c>
+      <c r="I30">
+        <v>38.213639999999998</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>8180</v>
+      </c>
+      <c r="L30" s="5">
+        <v>532.70000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>115596</v>
+      </c>
+      <c r="B31">
+        <v>75817</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>-97.604650000000007</v>
+      </c>
+      <c r="I31">
+        <v>38.69576</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1261</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>115596</v>
+      </c>
+      <c r="B32">
+        <v>75819</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>-97.701149999999998</v>
+      </c>
+      <c r="I32">
+        <v>38.53689</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>8350</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1041.9000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>115596</v>
+      </c>
+      <c r="B33">
+        <v>77839</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>-97.441220000000001</v>
-      </c>
-      <c r="I29">
-        <v>38.144100000000002</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>115596</v>
-      </c>
-      <c r="B30">
-        <v>73154</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>-97.4221</v>
-      </c>
-      <c r="I30">
-        <v>38.131169999999997</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>115596</v>
-      </c>
-      <c r="B31">
-        <v>77839</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>-97.464259999999996</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <v>38.177129999999998</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>7894</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>115596</v>
-      </c>
-      <c r="B32">
-        <v>85855</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>-97.812240000000003</v>
-      </c>
-      <c r="I32">
-        <v>38.026240000000001</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>7960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>115596</v>
-      </c>
-      <c r="B33">
-        <v>91163</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>-98.031000000000006</v>
-      </c>
-      <c r="I33">
-        <v>37.986539999999998</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>7964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>115596</v>
       </c>
       <c r="B34">
-        <v>90740</v>
+        <v>79965</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>-97.88991</v>
+        <v>-96.169820999999999</v>
       </c>
       <c r="I34">
-        <v>38.051299999999998</v>
+        <v>39.488137000000002</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>8080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8349</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>115596</v>
+      </c>
+      <c r="B35">
+        <v>81867</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>-97.707859999999997</v>
+      </c>
+      <c r="I35">
+        <v>38.69294</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3510</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>116142</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>84200</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>-97.727320000000006</v>
-      </c>
-      <c r="I35">
-        <v>38.290570000000002</v>
-      </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <v>3806</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>115596</v>
-      </c>
-      <c r="B36">
-        <v>90894</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>77</v>
@@ -7492,62 +7635,68 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>-97.678139999999999</v>
+        <v>-97.727320000000006</v>
       </c>
       <c r="I36">
-        <v>38.18224</v>
+        <v>38.290570000000002</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3806</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>115596</v>
       </c>
       <c r="B37">
-        <v>89133</v>
+        <v>84536</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>-97.903099999999995</v>
+        <v>-97.738230000000001</v>
       </c>
       <c r="I37">
-        <v>38.210769999999997</v>
+        <v>38.084859999999999</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8153</v>
+      </c>
+      <c r="L37" s="5">
+        <v>307.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>115596</v>
       </c>
       <c r="B38">
-        <v>72116</v>
+        <v>85773</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>11</v>
@@ -7556,2297 +7705,2495 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>-97.758309999999994</v>
+        <v>-97.602519999999998</v>
       </c>
       <c r="I38">
-        <v>38.189160000000001</v>
+        <v>38.695790000000002</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>7891</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8089</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>115596</v>
       </c>
       <c r="B39">
-        <v>104993</v>
+        <v>85855</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>-97.702529999999996</v>
+        <v>-97.812240000000003</v>
       </c>
       <c r="I39">
-        <v>38.203780000000002</v>
+        <v>38.026240000000001</v>
       </c>
       <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>7960</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>115596</v>
+      </c>
+      <c r="B40">
+        <v>85856</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>-97.79983</v>
+      </c>
+      <c r="I40">
+        <v>37.925310000000003</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>7963</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1066.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>115596</v>
+      </c>
+      <c r="B41">
+        <v>85913</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>-97.776740000000004</v>
+      </c>
+      <c r="I41">
+        <v>38.149099999999997</v>
+      </c>
+      <c r="J41">
         <v>3</v>
       </c>
-      <c r="K39">
-        <v>8147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>115596</v>
-      </c>
-      <c r="B40">
-        <v>88920</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>-97.800079999999994</v>
-      </c>
-      <c r="I40">
-        <v>38.24718</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>8379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>115596</v>
-      </c>
-      <c r="B41">
-        <v>91730</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>-97.604339999999993</v>
-      </c>
-      <c r="I41">
-        <v>38.775210000000001</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
       <c r="K41">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8059</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>115596</v>
       </c>
       <c r="B42">
-        <v>96701</v>
+        <v>86080</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>-96.828050000000005</v>
+        <v>-97.821719999999999</v>
       </c>
       <c r="I42">
-        <v>38.889560000000003</v>
+        <v>38.332729999999998</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7815</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>115596</v>
       </c>
       <c r="B43">
-        <v>119831</v>
+        <v>86081</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>-98.326400000000007</v>
+        <v>-97.665019999999998</v>
       </c>
       <c r="I43">
-        <v>37.932879999999997</v>
+        <v>38.687199999999997</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>8092</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8181</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>115596</v>
       </c>
       <c r="B44">
-        <v>72137</v>
+        <v>86127</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>-97.589560000000006</v>
+        <v>-97.702269999999999</v>
       </c>
       <c r="I44">
-        <v>38.539400000000001</v>
+        <v>38.453339999999997</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7817</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>115596</v>
       </c>
       <c r="B45">
-        <v>88777</v>
+        <v>86133</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>-97.741489999999999</v>
+        <v>-97.516350000000003</v>
       </c>
       <c r="I45">
-        <v>38.557980000000001</v>
+        <v>38.189100000000003</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>8177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7798</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>115596</v>
       </c>
       <c r="B46">
-        <v>75819</v>
+        <v>86446</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>-97.701149999999998</v>
+        <v>-97.898610000000005</v>
       </c>
       <c r="I46">
-        <v>38.53689</v>
+        <v>38.30491</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>8350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8056</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>115596</v>
       </c>
       <c r="B47">
-        <v>72100</v>
+        <v>86640</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>-97.761859999999999</v>
+        <v>-97.289820000000006</v>
       </c>
       <c r="I47">
-        <v>38.482419999999998</v>
+        <v>39.017159999999997</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>8416</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8146</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>115596</v>
       </c>
       <c r="B48">
-        <v>126351</v>
+        <v>86999</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>-98.037295999999998</v>
+        <v>-97.412800000000004</v>
       </c>
       <c r="I48">
-        <v>38.587887000000002</v>
+        <v>38.972200000000001</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>7810</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7816</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>115596</v>
       </c>
       <c r="B49">
-        <v>105805</v>
+        <v>87194</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>-98.193325999999999</v>
+        <v>-96.342950000000002</v>
       </c>
       <c r="I49">
-        <v>38.317545000000003</v>
+        <v>39.14358</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49">
-        <v>7957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3303</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>115596</v>
       </c>
       <c r="B50">
-        <v>105805</v>
+        <v>87194</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>-98.193325999999999</v>
+        <v>-96.342950000000002</v>
       </c>
       <c r="I50">
-        <v>38.317545000000003</v>
+        <v>39.14358</v>
       </c>
       <c r="J50">
         <v>2</v>
       </c>
       <c r="K50">
-        <v>8342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7873</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>115596</v>
       </c>
       <c r="B51">
-        <v>79965</v>
+        <v>87275</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>-96.169820999999999</v>
+        <v>-96.315078</v>
       </c>
       <c r="I51">
-        <v>39.488137000000002</v>
+        <v>39.332256000000001</v>
       </c>
       <c r="J51">
         <v>2</v>
       </c>
       <c r="K51">
-        <v>8349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1854</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>115596</v>
       </c>
       <c r="B52">
+        <v>87275</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>-96.315078</v>
+      </c>
+      <c r="I52">
+        <v>39.332256000000001</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>8175</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>115596</v>
+      </c>
+      <c r="B53">
+        <v>87284</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>-96.118870000000001</v>
+      </c>
+      <c r="I53">
+        <v>39.493749999999999</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>8415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>115596</v>
+      </c>
+      <c r="B54">
+        <v>87367</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>-96.451059999999998</v>
+      </c>
+      <c r="I54">
+        <v>39.276899999999998</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>8347</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>115596</v>
+      </c>
+      <c r="B55">
+        <v>87431</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>-96.356160000000003</v>
+      </c>
+      <c r="I55">
+        <v>38.749270000000003</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>8341</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>115596</v>
+      </c>
+      <c r="B56">
         <v>87434</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
         <v>-96.569950000000006</v>
       </c>
-      <c r="I52">
+      <c r="I56">
         <v>39.204749999999997</v>
       </c>
-      <c r="J52">
+      <c r="J56">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="K56">
         <v>8374</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>115596</v>
-      </c>
-      <c r="B53">
-        <v>122250</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="L56" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>115596</v>
+      </c>
+      <c r="B57">
+        <v>88771</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>-97.641679999999994</v>
+      </c>
+      <c r="I57">
+        <v>38.783749999999998</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>3246</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>115596</v>
+      </c>
+      <c r="B58">
+        <v>88777</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>-97.741489999999999</v>
+      </c>
+      <c r="I58">
+        <v>38.557980000000001</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>8177</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>115596</v>
+      </c>
+      <c r="B59">
+        <v>88920</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>-97.800079999999994</v>
+      </c>
+      <c r="I59">
+        <v>38.24718</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>8379</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>115596</v>
+      </c>
+      <c r="B60">
+        <v>88953</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>-97.586699999999993</v>
+      </c>
+      <c r="I60">
+        <v>38.21801</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>3982</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>115596</v>
+      </c>
+      <c r="B61">
+        <v>89065</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>-97.424520000000001</v>
+      </c>
+      <c r="I61">
+        <v>38.866039999999998</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3009</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>115596</v>
+      </c>
+      <c r="B62">
+        <v>89066</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>-97.441220000000001</v>
+      </c>
+      <c r="I62">
+        <v>38.144100000000002</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3098</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>115596</v>
+      </c>
+      <c r="B63">
+        <v>89133</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>-97.903099999999995</v>
+      </c>
+      <c r="I63">
+        <v>38.210769999999997</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>7887</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>115596</v>
+      </c>
+      <c r="B64">
+        <v>89170</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>-96.885379999999998</v>
+      </c>
+      <c r="I64">
+        <v>38.093060000000001</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>8062</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>115596</v>
+      </c>
+      <c r="B65">
+        <v>89510</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>-97.38955</v>
+      </c>
+      <c r="I65">
+        <v>38.120159999999998</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>7809</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>115596</v>
+      </c>
+      <c r="B66">
+        <v>90031</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>-97.306759999999997</v>
+      </c>
+      <c r="I66">
+        <v>38.15972</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>7812</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>115596</v>
+      </c>
+      <c r="B67">
+        <v>90070</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>-97.500820000000004</v>
+      </c>
+      <c r="I67">
+        <v>38.37818</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2314</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>115596</v>
+      </c>
+      <c r="B68">
+        <v>90306</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>-97.223299999999995</v>
+      </c>
+      <c r="I68">
+        <v>37.490900000000003</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>7818</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>116142</v>
+      </c>
+      <c r="B69">
+        <v>90589</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>-97.201009999999997</v>
+      </c>
+      <c r="I69">
+        <v>38.91395</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>8091</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>115596</v>
+      </c>
+      <c r="B70">
+        <v>90740</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>-97.88991</v>
+      </c>
+      <c r="I70">
+        <v>38.051299999999998</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>8080</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>115596</v>
+      </c>
+      <c r="B71">
+        <v>90756</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>-97.481300000000005</v>
+      </c>
+      <c r="I71">
+        <v>38.299599999999998</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>8152</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>115596</v>
+      </c>
+      <c r="B72">
+        <v>90884</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>-97.099050000000005</v>
+      </c>
+      <c r="I72">
+        <v>37.777140000000003</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>8149</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>115596</v>
+      </c>
+      <c r="B73">
+        <v>90894</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>-97.678139999999999</v>
+      </c>
+      <c r="I73">
+        <v>38.18224</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3807</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>115596</v>
+      </c>
+      <c r="B74">
+        <v>91163</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>-98.031000000000006</v>
+      </c>
+      <c r="I74">
+        <v>37.986539999999998</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>7964</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>115596</v>
+      </c>
+      <c r="B75">
+        <v>91249</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>-97.683930000000004</v>
-      </c>
-      <c r="I53">
-        <v>38.352600000000002</v>
-      </c>
-      <c r="J53">
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>-97.668629999999993</v>
+      </c>
+      <c r="I75">
+        <v>38.275570000000002</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>7821</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>115596</v>
+      </c>
+      <c r="B76">
+        <v>91730</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>-97.604339999999993</v>
+      </c>
+      <c r="I76">
+        <v>38.775210000000001</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3154</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>115596</v>
+      </c>
+      <c r="B77">
+        <v>92267</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>-97.520650000000003</v>
+      </c>
+      <c r="I77">
+        <v>38.409129999999998</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>3153</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>115596</v>
+      </c>
+      <c r="B78">
+        <v>92282</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>-97.049459999999996</v>
+      </c>
+      <c r="I78">
+        <v>37.926070000000003</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3151</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>373488</v>
+      </c>
+      <c r="B79">
+        <v>92436</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>-97.686549999999997</v>
+      </c>
+      <c r="I79">
+        <v>38.372520000000002</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>3066</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>373488</v>
+      </c>
+      <c r="B80">
+        <v>92436</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>-97.686549999999997</v>
+      </c>
+      <c r="I80">
+        <v>38.372520000000002</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>7469</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>373488</v>
+      </c>
+      <c r="B81">
+        <v>92436</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>-97.686549999999997</v>
+      </c>
+      <c r="I81">
+        <v>38.372520000000002</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>7470</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>373488</v>
+      </c>
+      <c r="B82">
+        <v>92436</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>-97.686549999999997</v>
+      </c>
+      <c r="I82">
+        <v>38.372520000000002</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>7473</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>115596</v>
+      </c>
+      <c r="B83">
+        <v>92551</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>-97.016409999999993</v>
+      </c>
+      <c r="I83">
+        <v>38.580019999999998</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83">
+        <v>8095</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>115596</v>
+      </c>
+      <c r="B84">
+        <v>92676</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>-97.373189999999994</v>
+      </c>
+      <c r="I84">
+        <v>38.916759999999996</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>7868</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>115596</v>
+      </c>
+      <c r="B85">
+        <v>96449</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>-96.992829999999998</v>
+      </c>
+      <c r="I85">
+        <v>38.782960000000003</v>
+      </c>
+      <c r="J85">
         <v>2</v>
       </c>
-      <c r="K53">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>373488</v>
-      </c>
-      <c r="B54">
-        <v>92436</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>-97.686549999999997</v>
-      </c>
-      <c r="I54">
-        <v>38.372520000000002</v>
-      </c>
-      <c r="J54">
+      <c r="K85">
+        <v>8151</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>115596</v>
+      </c>
+      <c r="B86">
+        <v>96578</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>-96.883030000000005</v>
+      </c>
+      <c r="I86">
+        <v>38.740400000000001</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>8076</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>115596</v>
+      </c>
+      <c r="B87">
+        <v>96701</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>-96.828050000000005</v>
+      </c>
+      <c r="I87">
+        <v>38.889560000000003</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>3097</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>115596</v>
+      </c>
+      <c r="B88">
+        <v>96835</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>-96.741079999999997</v>
+      </c>
+      <c r="I88">
+        <v>38.72719</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>8178</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>115596</v>
+      </c>
+      <c r="B89">
+        <v>101314</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>-97.740080000000006</v>
+      </c>
+      <c r="I89">
+        <v>38.119700000000002</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>7870</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>115596</v>
+      </c>
+      <c r="B90">
+        <v>104993</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>-97.702529999999996</v>
+      </c>
+      <c r="I90">
+        <v>38.203780000000002</v>
+      </c>
+      <c r="J90">
         <v>3</v>
       </c>
-      <c r="K54">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>115596</v>
-      </c>
-      <c r="B55">
-        <v>121040</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>-97.683014999999997</v>
-      </c>
-      <c r="I55">
-        <v>38.38353</v>
-      </c>
-      <c r="J55">
+      <c r="K90">
+        <v>8147</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>115596</v>
+      </c>
+      <c r="B91">
+        <v>105206</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>-97.756299999999996</v>
+      </c>
+      <c r="I91">
+        <v>39.156010000000002</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>7822</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>115596</v>
+      </c>
+      <c r="B92">
+        <v>105805</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>-98.193325999999999</v>
+      </c>
+      <c r="I92">
+        <v>38.317545000000003</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>7957</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>115596</v>
+      </c>
+      <c r="B93">
+        <v>105805</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>-98.193325999999999</v>
+      </c>
+      <c r="I93">
+        <v>38.317545000000003</v>
+      </c>
+      <c r="J93">
         <v>2</v>
       </c>
-      <c r="K55">
-        <v>6590</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>115596</v>
-      </c>
-      <c r="B56">
-        <v>121040</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>-97.683014999999997</v>
-      </c>
-      <c r="I56">
-        <v>38.38353</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-      <c r="K56">
-        <v>6604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>373488</v>
-      </c>
-      <c r="B57">
-        <v>92436</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>-97.686549999999997</v>
-      </c>
-      <c r="I57">
-        <v>38.372520000000002</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-      <c r="K57">
-        <v>7469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>373488</v>
-      </c>
-      <c r="B58">
-        <v>92436</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>-97.686549999999997</v>
-      </c>
-      <c r="I58">
-        <v>38.372520000000002</v>
-      </c>
-      <c r="J58">
-        <v>6</v>
-      </c>
-      <c r="K58">
-        <v>7470</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>373488</v>
-      </c>
-      <c r="B59">
-        <v>92436</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>-97.686549999999997</v>
-      </c>
-      <c r="I59">
-        <v>38.372520000000002</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>7473</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>115596</v>
-      </c>
-      <c r="B60">
-        <v>86080</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>-97.821719999999999</v>
-      </c>
-      <c r="I60">
-        <v>38.332729999999998</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>115596</v>
-      </c>
-      <c r="B61">
-        <v>86127</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>-97.702269999999999</v>
-      </c>
-      <c r="I61">
-        <v>38.453339999999997</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>7817</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>115596</v>
-      </c>
-      <c r="B62">
-        <v>72123</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>-97.638540000000006</v>
-      </c>
-      <c r="I62">
-        <v>38.261099999999999</v>
-      </c>
-      <c r="J62">
-        <v>3</v>
-      </c>
-      <c r="K62">
-        <v>7819</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>115596</v>
-      </c>
-      <c r="B63">
-        <v>91249</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>-97.668629999999993</v>
-      </c>
-      <c r="I63">
-        <v>38.275570000000002</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>7821</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>115596</v>
-      </c>
-      <c r="B64">
-        <v>125204</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>-97.610215999999994</v>
-      </c>
-      <c r="I64">
-        <v>38.433449000000003</v>
-      </c>
-      <c r="J64">
-        <v>2</v>
-      </c>
-      <c r="K64">
-        <v>7892</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>115596</v>
-      </c>
-      <c r="B65">
-        <v>75561</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>-97.760469999999998</v>
-      </c>
-      <c r="I65">
-        <v>38.323430000000002</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>115596</v>
-      </c>
-      <c r="B66">
-        <v>122250</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>-97.683930000000004</v>
-      </c>
-      <c r="I66">
-        <v>38.352600000000002</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>8417</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>115596</v>
-      </c>
-      <c r="B67">
-        <v>105206</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>-97.756299999999996</v>
-      </c>
-      <c r="I67">
-        <v>39.156010000000002</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>7822</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>115596</v>
-      </c>
-      <c r="B68">
-        <v>88953</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>-97.586699999999993</v>
-      </c>
-      <c r="I68">
-        <v>38.21801</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>3982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>115596</v>
-      </c>
-      <c r="B69">
-        <v>73373</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>-97.687020000000004</v>
-      </c>
-      <c r="I69">
-        <v>38.265079999999998</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>7795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>115596</v>
-      </c>
-      <c r="B70">
-        <v>86133</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>-97.516350000000003</v>
-      </c>
-      <c r="I70">
-        <v>38.189100000000003</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>7798</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>115596</v>
-      </c>
-      <c r="B71">
-        <v>75483</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>-97.646540000000002</v>
-      </c>
-      <c r="I71">
-        <v>38.172730000000001</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>115596</v>
-      </c>
-      <c r="B72">
-        <v>121536</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>-97.504980000000003</v>
-      </c>
-      <c r="I72">
-        <v>38.231050000000003</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>8058</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>115596</v>
-      </c>
-      <c r="B73">
-        <v>72098</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>-97.437219999999996</v>
-      </c>
-      <c r="I73">
-        <v>38.216799999999999</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>115596</v>
-      </c>
-      <c r="B74">
-        <v>75642</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>-97.499539999999996</v>
-      </c>
-      <c r="I74">
-        <v>38.213639999999998</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-      <c r="K74">
-        <v>8180</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>115596</v>
-      </c>
-      <c r="B75">
-        <v>90306</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>-97.223299999999995</v>
-      </c>
-      <c r="I75">
-        <v>37.490900000000003</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>7818</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>115596</v>
-      </c>
-      <c r="B76">
-        <v>89065</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>-97.424520000000001</v>
-      </c>
-      <c r="I76">
-        <v>38.866039999999998</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>115596</v>
-      </c>
-      <c r="B77">
-        <v>89510</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>-97.38955</v>
-      </c>
-      <c r="I77">
-        <v>38.120159999999998</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>7809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>115596</v>
-      </c>
-      <c r="B78">
-        <v>73241</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>-97.430729999999997</v>
-      </c>
-      <c r="I78">
-        <v>38.042119999999997</v>
-      </c>
-      <c r="J78">
-        <v>2</v>
-      </c>
-      <c r="K78">
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>115596</v>
-      </c>
-      <c r="B79">
-        <v>74837</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>-97.380840000000006</v>
-      </c>
-      <c r="I79">
-        <v>38.230829999999997</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>8093</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>115596</v>
-      </c>
-      <c r="B80">
-        <v>87284</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>-96.118870000000001</v>
-      </c>
-      <c r="I80">
-        <v>39.493749999999999</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>8415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>115596</v>
-      </c>
-      <c r="B81">
-        <v>73217</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>-97.202740000000006</v>
-      </c>
-      <c r="I81">
-        <v>38.190100000000001</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>115596</v>
-      </c>
-      <c r="B82">
-        <v>73287</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>-97.221609999999998</v>
-      </c>
-      <c r="I82">
-        <v>38.17503</v>
-      </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-      <c r="K82">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>115596</v>
-      </c>
-      <c r="B83">
-        <v>72124</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>-97.928479999999993</v>
-      </c>
-      <c r="I83">
-        <v>37.835729999999998</v>
-      </c>
-      <c r="J83">
-        <v>2</v>
-      </c>
-      <c r="K83">
-        <v>7851</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>115596</v>
-      </c>
-      <c r="B84">
-        <v>72111</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>-97.935180000000003</v>
-      </c>
-      <c r="I84">
-        <v>37.786349999999999</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84">
-        <v>7959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>115596</v>
-      </c>
-      <c r="B85">
-        <v>92551</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>-97.016409999999993</v>
-      </c>
-      <c r="I85">
-        <v>38.580019999999998</v>
-      </c>
-      <c r="J85">
-        <v>3</v>
-      </c>
-      <c r="K85">
-        <v>8095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>115596</v>
-      </c>
-      <c r="B86">
-        <v>88771</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>-97.641679999999994</v>
-      </c>
-      <c r="I86">
-        <v>38.783749999999998</v>
-      </c>
-      <c r="J86">
-        <v>3</v>
-      </c>
-      <c r="K86">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>115596</v>
-      </c>
-      <c r="B87">
-        <v>72134</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>-97.697289999999995</v>
-      </c>
-      <c r="I87">
-        <v>38.740749999999998</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>115596</v>
-      </c>
-      <c r="B88">
-        <v>81867</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>-97.707859999999997</v>
-      </c>
-      <c r="I88">
-        <v>38.69294</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>115596</v>
-      </c>
-      <c r="B89">
-        <v>72112</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>-97.710759999999993</v>
-      </c>
-      <c r="I89">
-        <v>38.711910000000003</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>115596</v>
-      </c>
-      <c r="B90">
-        <v>86081</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>-97.665019999999998</v>
-      </c>
-      <c r="I90">
-        <v>38.687199999999997</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>8181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>115596</v>
-      </c>
-      <c r="B91">
-        <v>86999</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>-97.412800000000004</v>
-      </c>
-      <c r="I91">
-        <v>38.972200000000001</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>7816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>115596</v>
-      </c>
-      <c r="B92">
-        <v>92676</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>-97.373189999999994</v>
-      </c>
-      <c r="I92">
-        <v>38.916759999999996</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92">
-        <v>7868</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>115596</v>
-      </c>
-      <c r="B93">
-        <v>87367</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>-96.451059999999998</v>
-      </c>
-      <c r="I93">
-        <v>39.276899999999998</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
       <c r="K93">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8342</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>115596</v>
       </c>
       <c r="B94">
-        <v>90031</v>
+        <v>119831</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>-97.306759999999997</v>
+        <v>-98.326400000000007</v>
       </c>
       <c r="I94">
-        <v>38.15972</v>
+        <v>37.932879999999997</v>
       </c>
       <c r="J94">
         <v>2</v>
       </c>
       <c r="K94">
-        <v>7812</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8092</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>115596</v>
       </c>
       <c r="B95">
-        <v>87194</v>
+        <v>121040</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>-96.342950000000002</v>
+        <v>-97.683014999999997</v>
       </c>
       <c r="I95">
-        <v>39.14358</v>
+        <v>38.38353</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6590</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>115596</v>
       </c>
       <c r="B96">
-        <v>87194</v>
+        <v>121040</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>-96.342950000000002</v>
+        <v>-97.683014999999997</v>
       </c>
       <c r="I96">
-        <v>39.14358</v>
+        <v>38.38353</v>
       </c>
       <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>6604</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>115596</v>
+      </c>
+      <c r="B97">
+        <v>121536</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>-97.504980000000003</v>
+      </c>
+      <c r="I97">
+        <v>38.231050000000003</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>8058</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>115596</v>
+      </c>
+      <c r="B98">
+        <v>122250</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>-97.683930000000004</v>
+      </c>
+      <c r="I98">
+        <v>38.352600000000002</v>
+      </c>
+      <c r="J98">
         <v>2</v>
       </c>
-      <c r="K96">
-        <v>7873</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>115596</v>
-      </c>
-      <c r="B97">
-        <v>87275</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>-96.315078</v>
-      </c>
-      <c r="I97">
-        <v>39.332256000000001</v>
-      </c>
-      <c r="J97">
+      <c r="K98">
+        <v>3026</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>115596</v>
+      </c>
+      <c r="B99">
+        <v>122250</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>-97.683930000000004</v>
+      </c>
+      <c r="I99">
+        <v>38.352600000000002</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>8417</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>115596</v>
+      </c>
+      <c r="B100">
+        <v>125204</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>-97.610215999999994</v>
+      </c>
+      <c r="I100">
+        <v>38.433449000000003</v>
+      </c>
+      <c r="J100">
         <v>2</v>
       </c>
-      <c r="K97">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>115596</v>
-      </c>
-      <c r="B98">
-        <v>87275</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>-96.315078</v>
-      </c>
-      <c r="I98">
-        <v>39.332256000000001</v>
-      </c>
-      <c r="J98">
-        <v>4</v>
-      </c>
-      <c r="K98">
-        <v>8175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>115596</v>
-      </c>
-      <c r="B99">
-        <v>96835</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>-96.741079999999997</v>
-      </c>
-      <c r="I99">
-        <v>38.72719</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>8178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>115596</v>
-      </c>
-      <c r="B100">
-        <v>92282</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>-97.049459999999996</v>
-      </c>
-      <c r="I100">
-        <v>37.926070000000003</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
       <c r="K100">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7892</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>115596</v>
       </c>
       <c r="B101">
-        <v>86446</v>
+        <v>126351</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>-97.898610000000005</v>
+        <v>-98.037295999999998</v>
       </c>
       <c r="I101">
-        <v>38.30491</v>
+        <v>38.587887000000002</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
-        <v>8056</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7810</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>115596</v>
       </c>
       <c r="B102">
-        <v>72133</v>
+        <v>126352</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>-96.772970000000001</v>
+      </c>
+      <c r="I102">
+        <v>38.24729</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>8346</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>115596</v>
+      </c>
+      <c r="B103">
+        <v>126353</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>-97.907340000000005</v>
-      </c>
-      <c r="I102">
-        <v>38.305239999999998</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>8411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>115596</v>
-      </c>
-      <c r="B103">
-        <v>96449</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E103" s="3" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>-96.992829999999998</v>
+        <v>-98.037295999999998</v>
       </c>
       <c r="I103">
-        <v>38.782960000000003</v>
+        <v>38.587887000000002</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>8151</v>
+        <v>7796</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1881</v>
       </c>
     </row>
   </sheetData>
@@ -9861,7 +10208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -45553,9 +45902,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
